--- a/DATA_goal/Junction_Flooding_233.xlsx
+++ b/DATA_goal/Junction_Flooding_233.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41665.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.82</v>
+        <v>3.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.93</v>
+        <v>2.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.1</v>
+        <v>4.21</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>198.65</v>
+        <v>19.86</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>37.58</v>
+        <v>3.76</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.54</v>
+        <v>2.45</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.51</v>
+        <v>2.15</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>37.61</v>
+        <v>3.76</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41665.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.68</v>
+        <v>1.47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.4</v>
+        <v>2.34</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>7.4</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>73.95999999999999</v>
-      </c>
       <c r="U3" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.76</v>
+        <v>2.18</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41665.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>37.32</v>
+        <v>3.73</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.75</v>
+        <v>1.27</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41665.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.72</v>
+        <v>4.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.14</v>
+        <v>3.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.57</v>
+        <v>5.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.8</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>215.84</v>
+        <v>21.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.88</v>
+        <v>4.09</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.4</v>
+        <v>2.74</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.17</v>
+        <v>2.62</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.58</v>
+        <v>4.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41665.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>25.03</v>
+        <v>2.5</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>75.11</v>
+        <v>7.51</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -1175,13 +1175,13 @@
         <v>41665.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="R7" s="4" t="n">
         <v>0</v>
@@ -1232,46 +1232,46 @@
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="Y7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z7" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.42</v>
-      </c>
       <c r="AA7" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41665.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.89</v>
+        <v>2.09</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>45.27</v>
+        <v>4.53</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>37.86</v>
+        <v>3.79</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>57.27</v>
+        <v>5.73</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>25.36</v>
+        <v>2.54</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.95</v>
+        <v>1.69</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>23.34</v>
+        <v>2.33</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>242.76</v>
+        <v>24.28</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>45.68</v>
+        <v>4.57</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>30.79</v>
+        <v>3.08</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>28.82</v>
+        <v>2.88</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.35</v>
+        <v>1.33</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.85</v>
+        <v>1.38</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>51.84</v>
+        <v>5.18</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.9</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41665.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.09</v>
+        <v>2.11</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.83</v>
+        <v>1.58</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45.75</v>
+        <v>4.58</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>38.24</v>
+        <v>3.82</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>64.31999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.67</v>
+        <v>1.97</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.59</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>244.79</v>
+        <v>24.48</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>46.28</v>
+        <v>4.63</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>31.2</v>
+        <v>3.12</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.43</v>
+        <v>3.14</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.34</v>
+        <v>1.93</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>58.58</v>
+        <v>5.86</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19.07</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41665.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.45</v>
+        <v>0.65</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>30.5</v>
+        <v>3.05</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>95.92</v>
+        <v>9.59</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>6.65</v>
+        <v>0.67</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>27.98</v>
+        <v>2.8</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_233.xlsx
+++ b/DATA_goal/Junction_Flooding_233.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,367 +652,367 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41665.34027777778</v>
+        <v>44914.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AD2" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q2" s="4" t="n">
+      <c r="AE2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>1.17</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>19.86</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>1.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41665.34722222222</v>
+        <v>44914.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.68</v>
+        <v>1.28</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.92</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.47</v>
+        <v>2.82</v>
       </c>
       <c r="F3" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>1.12</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.58</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.53</v>
+        <v>1.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.74</v>
+        <v>1.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.89</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.4</v>
+        <v>14.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.51</v>
+        <v>2.84</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="X3" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.91</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.83</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.75</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.89</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.6</v>
+        <v>1.17</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.18</v>
+        <v>3.51</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41665.35416666666</v>
+        <v>44914.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.95</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.65</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.74</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.37</v>
+        <v>3.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.45</v>
+        <v>1.16</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.72</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.9</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.4</v>
+        <v>1.06</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.73</v>
+        <v>10.71</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.83</v>
+        <v>2.11</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.53</v>
+        <v>1.39</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.72</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.63</v>
+        <v>1.48</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.61</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.87</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.27</v>
+        <v>2.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41665.36111111111</v>
+        <v>44914.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.07</v>
+        <v>3.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.31</v>
+        <v>3.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.26</v>
+        <v>5.37</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
@@ -1021,673 +1021,153 @@
         <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.58</v>
+        <v>21.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.76</v>
+        <v>4.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41665.36805555555</v>
+        <v>44914.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.49</v>
+        <v>6.68</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.5</v>
+        <v>19.85</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.2</v>
+        <v>15.91</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.54</v>
+        <v>7.07</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.5</v>
+        <v>30.92</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.84</v>
+        <v>11.05</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.37</v>
+        <v>4.85</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.53</v>
+        <v>7.05</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.6</v>
+        <v>7.96</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.63</v>
+        <v>8.51</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.17</v>
+        <v>2.3</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.54</v>
+        <v>7.14</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.77</v>
+        <v>10.12</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.47</v>
+        <v>6.16</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>7.51</v>
+        <v>101.42</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.53</v>
+        <v>20.1</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.5</v>
+        <v>6.59</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.02</v>
+        <v>13.38</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.53</v>
+        <v>6.97</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.1</v>
+        <v>1.18</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.18</v>
+        <v>14.7</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.44</v>
+        <v>5.82</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.4</v>
+        <v>5.23</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.47</v>
+        <v>6.14</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.63</v>
+        <v>8.34</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.32</v>
+        <v>28.4</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.27</v>
+        <v>3.64</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41665.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41665.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41665.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>24.48</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41665.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41665.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>118.72</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_233.xlsx
+++ b/DATA_goal/Junction_Flooding_233.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44914.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44914.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.82</v>
+        <v>28.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.82</v>
+        <v>38.21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.7</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.23</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.04</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.22</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.72</v>
+        <v>147.18</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.84</v>
+        <v>28.39</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.67</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.07</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.51</v>
+        <v>35.14</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44914.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.45</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.05</v>
+        <v>30.53</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.35</v>
       </c>
       <c r="M4" s="4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.71</v>
+        <v>107.13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.09</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.89</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.76</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.8</v>
+        <v>28.03</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44914.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.97</v>
+        <v>39.71</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.37</v>
+        <v>53.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.01</v>
+        <v>210.13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.99</v>
+        <v>39.9</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.67</v>
+        <v>26.73</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.64</v>
+        <v>26.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.88</v>
+        <v>48.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_233.xlsx
+++ b/DATA_goal/Junction_Flooding_233.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44914.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.82</v>
+        <v>12.817</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.19</v>
+        <v>9.189</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.64</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.16</v>
+        <v>28.159</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.1</v>
+        <v>22.105</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.962999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>38.21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>6.7</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.709</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.23</v>
+        <v>11.233</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.04</v>
+        <v>12.043</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.26</v>
+        <v>3.261</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.22</v>
+        <v>14.217</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.92</v>
+        <v>8.923</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.351</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>147.18</v>
+        <v>147.182</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.39</v>
+        <v>28.394</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.67</v>
+        <v>18.668</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.709</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.92</v>
+        <v>1.921</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.07</v>
+        <v>19.072</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.52</v>
+        <v>7.523</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>8.859999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.73</v>
+        <v>11.725</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>35.14</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.1</v>
+        <v>5.099</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.71</v>
+        <v>11.714</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44914.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.48</v>
+        <v>9.483000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.88</v>
+        <v>6.881</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.072</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.88</v>
+        <v>20.885</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.45</v>
+        <v>16.455</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.38</v>
+        <v>7.383</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.53</v>
+        <v>30.532</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.63</v>
+        <v>11.635</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.01</v>
+        <v>5.005</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.22</v>
+        <v>7.222</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>8.35</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.964</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.42</v>
+        <v>2.417</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.56</v>
+        <v>10.563</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.6</v>
+        <v>6.605</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.905</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.609</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>107.13</v>
+        <v>107.128</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.09</v>
+        <v>21.085</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.89</v>
+        <v>13.891</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.24</v>
+        <v>7.236</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.376</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.76</v>
+        <v>14.759</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.57</v>
+        <v>5.568</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.55</v>
+        <v>6.545</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.73</v>
+        <v>8.728</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.03</v>
+        <v>28.028</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>3.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44914.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.92</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.42</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_233.xlsx
+++ b/DATA_goal/Junction_Flooding_233.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44914.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.15</v>
+        <v>18.151</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.48</v>
+        <v>13.478</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.156</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.71</v>
+        <v>39.707</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.21</v>
+        <v>32.209</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.23</v>
+        <v>14.226</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>53.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.76</v>
+        <v>9.760999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.38</v>
+        <v>14.382</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.92</v>
+        <v>15.916</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.95</v>
+        <v>16.949</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.588</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.27</v>
+        <v>20.274</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.13</v>
+        <v>12.128</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>210.13</v>
+        <v>210.129</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.9</v>
+        <v>39.902</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.73</v>
+        <v>26.733</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>14.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.17</v>
+        <v>2.169</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.44</v>
+        <v>26.445</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.36</v>
+        <v>10.365</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.19</v>
+        <v>12.189</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.7</v>
+        <v>16.701</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>48.81</v>
+        <v>48.811</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.38</v>
+        <v>7.381</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.49</v>
+        <v>16.487</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44914.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.42</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_233.xlsx
+++ b/DATA_goal/Junction_Flooding_233.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44914.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.151</v>
+        <v>18.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.478</v>
+        <v>13.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.156</v>
+        <v>1.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.707</v>
+        <v>39.71</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.209</v>
+        <v>32.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.226</v>
+        <v>14.23</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>53.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.106</v>
+        <v>22.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.760999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.382</v>
+        <v>14.38</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.916</v>
+        <v>15.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.949</v>
+        <v>16.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.588</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.287</v>
+        <v>14.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.274</v>
+        <v>20.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.128</v>
+        <v>12.13</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>210.129</v>
+        <v>210.13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.902</v>
+        <v>39.9</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.187</v>
+        <v>13.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.733</v>
+        <v>26.73</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>14.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.169</v>
+        <v>2.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.445</v>
+        <v>26.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.648</v>
+        <v>11.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.365</v>
+        <v>10.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.189</v>
+        <v>12.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.701</v>
+        <v>16.7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>48.811</v>
+        <v>48.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.381</v>
+        <v>7.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.487</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44914.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.92</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.42</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>
